--- a/meta_xlsx/01_water_res/BA01.xlsx
+++ b/meta_xlsx/01_water_res/BA01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\opt\github\gorna\meta_xlsx\01水资源数据库\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\opt\github\gorna\meta_xlsx\01_water_res\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="99">
   <si>
     <t>表名</t>
   </si>
@@ -316,6 +316,21 @@
   </si>
   <si>
     <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,7 +668,7 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -845,6 +860,9 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>97</v>
       </c>
